--- a/Project 3 Test Plan.xlsx
+++ b/Project 3 Test Plan.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Dropbox (University of Michigan)\Winter Semester 2024\CIS 436 - Mobile Application Design and Implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OLAGO\Videos\School_Code\CIS 436-App Development\Project3_CatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5ADC1-D42A-4FA5-AE3E-B51967D301A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19FDB5-7CEB-44EB-9FEB-81AF4C375B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="April 8, 2024" sheetId="4" r:id="rId1"/>
     <sheet name="April 10, 2024" sheetId="3" r:id="rId2"/>
     <sheet name="April 11, 2024" sheetId="5" r:id="rId3"/>
+    <sheet name="April 12, 2024" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="2" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>Test case plan</t>
   </si>
@@ -170,6 +171,84 @@
   </si>
   <si>
     <t>Placeholder link works</t>
+  </si>
+  <si>
+    <t>Ope</t>
+  </si>
+  <si>
+    <t>Spinner</t>
+  </si>
+  <si>
+    <t>Info Display</t>
+  </si>
+  <si>
+    <t>API Handling</t>
+  </si>
+  <si>
+    <t>Fragment UI</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Cat breeds populate in spinner</t>
+  </si>
+  <si>
+    <t>Upon launching the app, the spinner should display a list of cat breeds retrieved from the API.</t>
+  </si>
+  <si>
+    <t>Spinner should populate.</t>
+  </si>
+  <si>
+    <t>Selection updates displayed cat info</t>
+  </si>
+  <si>
+    <t>When a user selects a cat breed from the spinner, the displayed information should update to show the selected cat's details.</t>
+  </si>
+  <si>
+    <t>Info should update accordingly.</t>
+  </si>
+  <si>
+    <t>Cat info displays correctly</t>
+  </si>
+  <si>
+    <t>The selected cat's name, origin, temperament, and description should be displayed in the info fragment.</t>
+  </si>
+  <si>
+    <t>All info should display correctly.</t>
+  </si>
+  <si>
+    <t>Cat image loads properly</t>
+  </si>
+  <si>
+    <t>Upon selecting a cat breed, the corresponding cat image should load in the image view.</t>
+  </si>
+  <si>
+    <t>Cat image should load.</t>
+  </si>
+  <si>
+    <t>Successful API call</t>
+  </si>
+  <si>
+    <t>The app should successfully fetch cat breed data from the provided API endpoint.</t>
+  </si>
+  <si>
+    <t>Fragment UI elements present</t>
+  </si>
+  <si>
+    <t>All UI elements (text views, image views) in the spinner and info fragments should be visible and functional.</t>
+  </si>
+  <si>
+    <t>All UI elements should be present.</t>
+  </si>
+  <si>
+    <t>Screen rotation disabled</t>
+  </si>
+  <si>
+    <t>The app should remain in portrait mode and not rotate when the device is rotated.</t>
+  </si>
+  <si>
+    <t>App should stay in portrait mode.</t>
   </si>
 </sst>
 </file>
@@ -291,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,6 +401,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -638,20 +729,20 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="35.59765625" customWidth="1"/>
+    <col min="5" max="5" width="28.1328125" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="19.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -664,7 +755,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="9">
         <v>45390</v>
       </c>
@@ -677,7 +768,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -706,7 +797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -735,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -764,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -790,32 +881,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -833,20 +924,20 @@
       <selection activeCell="E10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.59765625" customWidth="1"/>
+    <col min="5" max="5" width="28.1328125" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="19.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -859,7 +950,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="9">
         <v>45392</v>
       </c>
@@ -872,7 +963,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -901,7 +992,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -927,7 +1018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -953,7 +1044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -979,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -990,27 +1081,27 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -1024,24 +1115,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB620EF-1180-4974-93A5-64CAFEFDD109}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="35.59765625" customWidth="1"/>
+    <col min="5" max="5" width="28.1328125" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="9" max="9" width="19.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1145,7 @@
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
     </row>
-    <row r="2" spans="1:9" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="9">
         <v>45393</v>
       </c>
@@ -1067,7 +1158,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1122,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1148,7 +1239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1177,7 +1268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1206,7 +1297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -1217,26 +1308,26 @@
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="19" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="20" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="22" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="23" s="2" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="24" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="26" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="27" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="28" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
@@ -1244,4 +1335,352 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEC05D4-4D0A-4380-B560-5293B3E8D4F8}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="33.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="34.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="9">
+        <v>45393</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" ht="156.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>